--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,33 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim_braly/ZTP-2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="740" windowWidth="28800" windowHeight="16540"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="SWITCHES" sheetId="1" r:id="rId1"/>
+    <sheet name="SWITCHES" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+  <si>
+    <t>association_id</t>
+  </si>
+  <si>
+    <t>configuration_template</t>
+  </si>
+  <si>
+    <t>host_name</t>
+  </si>
   <si>
     <t>snmp_location</t>
   </si>
@@ -35,103 +31,161 @@
     <t>snmp_contact</t>
   </si>
   <si>
-    <t>association_id</t>
-  </si>
-  <si>
-    <t>host_name</t>
+    <t>int_management_1_address</t>
+  </si>
+  <si>
+    <t>int_management_1_mask</t>
+  </si>
+  <si>
+    <t>default_gateway</t>
+  </si>
+  <si>
+    <t>default_route</t>
+  </si>
+  <si>
+    <t>uplink_1</t>
+  </si>
+  <si>
+    <t>uplink_2</t>
+  </si>
+  <si>
+    <t>user_vlan</t>
+  </si>
+  <si>
+    <t>user_vlan_ports</t>
+  </si>
+  <si>
+    <t>voice_vlan</t>
+  </si>
+  <si>
+    <t>voice_vlan_ports</t>
+  </si>
+  <si>
+    <t>wireless_vlan</t>
+  </si>
+  <si>
+    <t>wireless_vlan_ports</t>
+  </si>
+  <si>
+    <t>74:8e:f8:31:60:40_1/3</t>
+  </si>
+  <si>
+    <t>FCX_simple_template.txt</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>Lab, basement</t>
+  </si>
+  <si>
+    <t>rmacchio@brocade.com</t>
+  </si>
+  <si>
+    <t>192.168.1.35</t>
   </si>
   <si>
     <t>255.255.255.0</t>
   </si>
   <si>
-    <t>configuration_template</t>
-  </si>
-  <si>
-    <t>user_vlan</t>
-  </si>
-  <si>
-    <t>voice_vlan</t>
-  </si>
-  <si>
-    <t>wireless_vlan</t>
-  </si>
-  <si>
-    <t>uplink_1</t>
-  </si>
-  <si>
-    <t>uplink_2</t>
-  </si>
-  <si>
-    <t>user_vlan_ports</t>
-  </si>
-  <si>
-    <t>voice_vlan_ports</t>
-  </si>
-  <si>
-    <t>wireless_vlan_ports</t>
-  </si>
-  <si>
-    <t>default_gateway</t>
-  </si>
-  <si>
-    <t>74:8e:f8:63:d:80_1/23</t>
-  </si>
-  <si>
-    <t>ICX7750_template_A</t>
-  </si>
-  <si>
-    <t>ZTP_Campus_ICX7750</t>
-  </si>
-  <si>
-    <t>Tim Braly</t>
-  </si>
-  <si>
-    <t>The Lab</t>
-  </si>
-  <si>
-    <t>management_address</t>
-  </si>
-  <si>
-    <t>management_mask</t>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>0.0.0.0/0 192.168.1.200</t>
   </si>
   <si>
     <t>e 1/1/1</t>
   </si>
   <si>
-    <t>e 1/1/45 to 1/1/48</t>
-  </si>
-  <si>
-    <t>10.0.0.222</t>
-  </si>
-  <si>
-    <t>10.0.0.1</t>
-  </si>
-  <si>
-    <t>management_vlan</t>
-  </si>
-  <si>
     <t>e 1/1/2</t>
   </si>
   <si>
-    <t>e 1/1/3 to 1/1/44</t>
+    <t>e 1/1/9 to 1/1/23</t>
+  </si>
+  <si>
+    <t>e 1/1/1 to 1/1/4</t>
+  </si>
+  <si>
+    <t>e 1/1/5 to 1/1/8</t>
+  </si>
+  <si>
+    <t>B201B</t>
+  </si>
+  <si>
+    <t>ICX7450_template_B</t>
+  </si>
+  <si>
+    <t>B200B_ICX7450</t>
+  </si>
+  <si>
+    <t>Building 201B, Room 103</t>
+  </si>
+  <si>
+    <t>NEC 800-555-1212</t>
+  </si>
+  <si>
+    <t>10.75.84.25</t>
+  </si>
+  <si>
+    <t>0.0.0.0/0 10.75.84.1</t>
+  </si>
+  <si>
+    <t>e 1/4/1</t>
+  </si>
+  <si>
+    <t>e 2/4/1</t>
+  </si>
+  <si>
+    <t>e 1/1/9 to 1/1/48</t>
+  </si>
+  <si>
+    <t>ICX-7450_9-84</t>
+  </si>
+  <si>
+    <t>POC_LAB</t>
+  </si>
+  <si>
+    <t>Solutions Lab</t>
+  </si>
+  <si>
+    <t>Chad Creason</t>
+  </si>
+  <si>
+    <t>10.10.20.200</t>
+  </si>
+  <si>
+    <t>10.10.20.1</t>
+  </si>
+  <si>
+    <t>e 1/1/9 to 1/1/24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="164"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -146,22 +200,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -449,58 +503,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="8" width="23.5" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" customWidth="1"/>
-    <col min="17" max="17" width="17" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="14.77734375"/>
+    <col customWidth="1" max="2" min="2" width="23.33203125"/>
+    <col customWidth="1" max="3" min="3" width="16"/>
+    <col customWidth="1" max="4" min="4" width="22"/>
+    <col customWidth="1" max="5" min="5" width="18.109375"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="9" min="7" width="23.44140625"/>
+    <col customWidth="1" max="10" min="10" width="9.109375"/>
+    <col customWidth="1" max="11" min="11" width="10"/>
+    <col customWidth="1" max="13" min="13" width="14.109375"/>
+    <col customWidth="1" max="15" min="15" width="18.6640625"/>
+    <col customWidth="1" max="16" min="16" width="12.6640625"/>
+    <col customWidth="1" max="17" min="17" width="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -509,78 +566,169 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L2">
-        <v>201</v>
+      <c r="L2" t="n">
+        <v>200</v>
       </c>
       <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="n">
+        <v>201</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="n">
         <v>1001</v>
       </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2">
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="n">
         <v>2001</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="n">
+        <v>400</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>